--- a/Doc/StaticWorking.xlsx
+++ b/Doc/StaticWorking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="56">
   <si>
     <t>电站整机测试报告</t>
   </si>
@@ -31,33 +31,39 @@
     <t>产品名称：</t>
   </si>
   <si>
-    <t>油机型号：</t>
-  </si>
-  <si>
     <t>环境温度（℃）：</t>
   </si>
   <si>
+    <t>XXX厂</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>XXX大电机</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
     <t>执行标准：</t>
   </si>
   <si>
     <t>额定电压 (V)：</t>
   </si>
   <si>
+    <t>产品型号：</t>
+  </si>
+  <si>
+    <t>相对湿度：</t>
+  </si>
+  <si>
+    <t>额定频率（Hz）：</t>
+  </si>
+  <si>
     <t>产品编号：</t>
   </si>
   <si>
-    <t>油机编号：</t>
-  </si>
-  <si>
-    <t>相对湿度：</t>
-  </si>
-  <si>
-    <t>额定频率（Hz）：</t>
-  </si>
-  <si>
-    <t>电机型号：</t>
-  </si>
-  <si>
     <t>大气压力（KPa）：</t>
   </si>
   <si>
@@ -68,9 +74,6 @@
   </si>
   <si>
     <t>相/线：</t>
-  </si>
-  <si>
-    <t>电机编号：</t>
   </si>
   <si>
     <t>测试负责人：</t>
@@ -597,12 +600,15 @@
         <v>2</v>
       </c>
       <c r="B3"/>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E3" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3"/>
       <c r="L3" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -610,16 +616,19 @@
         <v>3</v>
       </c>
       <c r="B4"/>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E4" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F4"/>
       <c r="H4" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I4"/>
       <c r="L4" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -627,69 +636,66 @@
         <v>4</v>
       </c>
       <c r="B5"/>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E5" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F5"/>
       <c r="H5" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I5"/>
       <c r="L5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A6"/>
       <c r="B6"/>
-      <c r="E6" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="E6"/>
       <c r="F6"/>
-      <c r="H6" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="H6"/>
       <c r="I6"/>
-      <c r="L6" s="3" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7"/>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E7" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F7"/>
       <c r="H7" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I7"/>
       <c r="L7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -697,7 +703,7 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N8" s="4"/>
     </row>
@@ -706,469 +712,469 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="N21" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1178,173 +1184,173 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27" s="5"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/StaticWorking.xlsx
+++ b/Doc/StaticWorking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="65">
   <si>
     <t>电站整机测试报告</t>
   </si>
@@ -58,6 +58,15 @@
     <t>相对湿度：</t>
   </si>
   <si>
+    <t>GJB</t>
+  </si>
+  <si>
+    <t>380.0</t>
+  </si>
+  <si>
+    <t>型号A</t>
+  </si>
+  <si>
     <t>额定频率（Hz）：</t>
   </si>
   <si>
@@ -67,6 +76,15 @@
     <t>大气压力（KPa）：</t>
   </si>
   <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>FDJCY20241024</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
     <t>试验时间：</t>
   </si>
   <si>
@@ -77,6 +95,18 @@
   </si>
   <si>
     <t>测试负责人：</t>
+  </si>
+  <si>
+    <t>2024-10-28-10-24-34</t>
+  </si>
+  <si>
+    <t>冷态</t>
+  </si>
+  <si>
+    <t>相电压</t>
+  </si>
+  <si>
+    <t>某某某</t>
   </si>
   <si>
     <t>负载状况 (%)</t>
@@ -139,9 +169,6 @@
   </si>
   <si>
     <t>25</t>
-  </si>
-  <si>
-    <t>50</t>
   </si>
   <si>
     <t>75</t>
@@ -190,7 +217,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
     </font>
@@ -203,6 +230,10 @@
       <b/>
       <sz val="15"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="DengXian"/>
     </font>
     <font>
       <sz val="10"/>
@@ -252,11 +283,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -558,6 +591,12 @@
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -600,15 +639,21 @@
         <v>2</v>
       </c>
       <c r="B3"/>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F3"/>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="L3" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4">
@@ -616,19 +661,28 @@
         <v>3</v>
       </c>
       <c r="B4"/>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F4"/>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H4" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I4"/>
+      <c r="J4" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="L4" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -636,19 +690,28 @@
         <v>4</v>
       </c>
       <c r="B5"/>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F5"/>
+      <c r="G5" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="H5" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I5"/>
+      <c r="J5" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="L5" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -664,38 +727,47 @@
         <v>5</v>
       </c>
       <c r="B7"/>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F7"/>
+      <c r="G7" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="H7" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I7"/>
+      <c r="J7" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="L7" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -703,7 +775,7 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N8" s="4"/>
     </row>
@@ -712,469 +784,469 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="4" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="4" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="4" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1184,173 +1256,173 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="4" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="4" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="4" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="5" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B27" s="5"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="5" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="5" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/StaticWorking.xlsx
+++ b/Doc/StaticWorking.xlsx
@@ -97,7 +97,7 @@
     <t>测试负责人：</t>
   </si>
   <si>
-    <t>2024-10-28-10-24-34</t>
+    <t>2024-10-30-16-07-51</t>
   </si>
   <si>
     <t>冷态</t>
@@ -106,7 +106,7 @@
     <t>相电压</t>
   </si>
   <si>
-    <t>某某某</t>
+    <t>bjc</t>
   </si>
   <si>
     <t>负载状况 (%)</t>

--- a/Doc/StaticWorking.xlsx
+++ b/Doc/StaticWorking.xlsx
@@ -97,7 +97,7 @@
     <t>测试负责人：</t>
   </si>
   <si>
-    <t>2024-10-30-16-07-51</t>
+    <t>2024-11-01-13-15-57</t>
   </si>
   <si>
     <t>冷态</t>
@@ -106,7 +106,7 @@
     <t>相电压</t>
   </si>
   <si>
-    <t>bjc</t>
+    <t>某某某</t>
   </si>
   <si>
     <t>负载状况 (%)</t>
